--- a/php-spreadsheet/output/estimate.xlsx
+++ b/php-spreadsheet/output/estimate.xlsx
@@ -777,7 +777,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="3" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="5" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -1124,9 +1124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>373680</xdr:colOff>
+      <xdr:colOff>373320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152280</xdr:rowOff>
+      <xdr:rowOff>151920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1139,8 +1139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5582880" y="1249560"/>
-          <a:ext cx="1418760" cy="390240"/>
+          <a:off x="5582160" y="1249560"/>
+          <a:ext cx="1418400" cy="389880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1161,9 +1161,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>923400</xdr:colOff>
+      <xdr:colOff>923040</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1177,7 +1177,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4332240" y="11574360"/>
-          <a:ext cx="713880" cy="961560"/>
+          <a:ext cx="713520" cy="961200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1198,9 +1198,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>176760</xdr:colOff>
+      <xdr:colOff>176400</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1214,7 +1214,7 @@
       <xdr:spPr>
         <a:xfrm rot="1260000">
           <a:off x="3861360" y="11374200"/>
-          <a:ext cx="437760" cy="247320"/>
+          <a:ext cx="437400" cy="246960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1231,11 +1231,11 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>476280</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>238320</xdr:rowOff>
+      <xdr:rowOff>238680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
@@ -1250,8 +1250,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="20580000">
-          <a:off x="3689640" y="11841120"/>
-          <a:ext cx="437760" cy="247320"/>
+          <a:off x="3689640" y="11841480"/>
+          <a:ext cx="437400" cy="246960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,8 +1273,8 @@
   </sheetPr>
   <dimension ref="B2:X48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="45" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S21" activeCellId="0" sqref="S21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="false" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A11" colorId="64" zoomScale="45" zoomScaleNormal="100" zoomScalePageLayoutView="45" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.1328125" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
